--- a/project/excel/NEAT_schema.xlsx
+++ b/project/excel/NEAT_schema.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="14" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="19" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ApplyTrainedModel" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,13 +15,18 @@
     <sheet name="EmbeddingsConfig" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="EnsmallenRunConfig" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="GraphDataConfiguration" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="NeatConfiguration" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="NodeEmbeddingsParamsConfig" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="NodeType" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="PosNegData" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Target" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="TrainValidData" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Upload" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Layer" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="LayerContainer" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="LayerParams" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Metric" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="MetricContainer" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="NeatConfiguration" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="NodeEmbeddingsParamsConfig" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="NodeType" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="PosNegData" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Target" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="TrainValidData" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Upload" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -468,6 +473,156 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>layerContainer__layers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>layerParams__units</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>layerParams__activation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"linear,relu,sigmoid,tanh,softmax"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>metric__metric_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>metric__type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>metric__curve</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>metricContainer__metrics</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>neatConfiguration__graph_data</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -523,7 +678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -554,7 +709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -585,7 +740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -611,7 +766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -642,7 +797,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>applyTrainedModelsContainer__models</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -678,39 +859,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>applyTrainedModelsContainer__models</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,15 +901,38 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>classifier__history_filename</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>classifier__parameters</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>classifier__layers</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>classifier__metrics</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>classifier__optimizer</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
     <dataValidation sqref="D2:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Average,Hadamard,Sum,L1,L2,AbsoluteL1"</formula1>
     </dataValidation>
+    <dataValidation sqref="J2:J1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"Adagrad,Adam,Adamax,Nadam,SGD"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1336,18 +1514,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>neatConfiguration__graph_data</t>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>layer__type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>layer__parameters</t>
         </is>
       </c>
     </row>

--- a/project/excel/NEAT_schema.xlsx
+++ b/project/excel/NEAT_schema.xlsx
@@ -1371,7 +1371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1415,34 +1415,11 @@
           <t>classifier__parameters</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>classifier__layers</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>classifier__metrics</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>classifier__optimizer</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>classifier__fit</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
+    </row>
+  </sheetData>
+  <dataValidations count="1">
     <dataValidation sqref="D2:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Average,Hadamard,Sum,L1,L2,AbsoluteL1"</formula1>
-    </dataValidation>
-    <dataValidation sqref="J2:J1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"Adagrad,Adam,Adamax,Nadam,SGD"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1599,7 +1576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1618,8 +1595,33 @@
           <t>classifierParams__max_iter</t>
         </is>
       </c>
-    </row>
-  </sheetData>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>classifierParams__layers</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>classifierParams__metrics</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>classifierParams__optimizer</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>classifierParams__fit</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"Adagrad,Adam,Adamax,Nadam,SGD"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/project/excel/NEAT_schema.xlsx
+++ b/project/excel/NEAT_schema.xlsx
@@ -1005,7 +1005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,6 +1022,11 @@
       <c r="B1" t="inlineStr">
         <is>
           <t>layerParams__activation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>layerParams__rate</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1057,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>metric__metric_name</t>
+          <t>metric__name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1499,7 +1504,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>classifierCallbackContainer__classbacks</t>
+          <t>classifierCallbackContainer__callbacks</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1566,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>classifierFitParams__callbacks</t>
+          <t>classifierFitParams__callbacks_list</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1602,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>classifierParams__layers</t>
+          <t>classifierParams__layers_config</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>classifierParams__metrics</t>
+          <t>classifierParams__metrics_config</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -1612,14 +1617,14 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>classifierParams__fit</t>
+          <t>classifierParams__fit_config</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"Adagrad,Adam,Adamax,Nadam,SGD"</formula1>
+      <formula1>"adagrad,adam,adamax,nadam,sgd"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/excel/NEAT_schema.xlsx
+++ b/project/excel/NEAT_schema.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="22" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="24" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ApplyTrainedModel" sheetId="1" state="visible" r:id="rId1"/>
@@ -27,9 +27,11 @@
     <sheet name="NodeEmbeddingsParams" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="NodeType" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="PosNegData" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Target" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="TrainValidData" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Upload" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="SkLearnParams" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Target" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="TFKerasParams" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="TrainValidData" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Upload" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1057,12 +1059,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>metric__type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>metric__name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>metric__type</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -1283,6 +1285,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>skLearnParams__random_state</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>skLearnParams__max_iter</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1303,7 +1336,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tFKerasParams__layers_config</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tFKerasParams__loss</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tFKerasParams__metrics_config</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>tFKerasParams__optimizer</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>tFKerasParams__fit_config</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="D2:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"adagrad,adam,adamax,nadam,sgd"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1334,7 +1418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1581,88 +1665,63 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>classifierParams__random_state</t>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>classifierParams__sklearn_params</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>classifierParams__max_iter</t>
+          <t>classifierParams__tf_keras_params</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>embeddingsConfig__filename</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>embeddingsConfig__history_filename</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>classifierParams__layers_config</t>
+          <t>embeddingsConfig__node_embeddings_params</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>classifierParams__metrics_config</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>classifierParams__optimizer</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>classifierParams__fit_config</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"adagrad,adam,adamax,nadam,sgd"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>embeddingsConfig__filename</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>embeddingsConfig__history_filename</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>embeddingsConfig__node_embeddings_params</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
           <t>embeddingsConfig__tsne_filename</t>
         </is>
       </c>

--- a/project/excel/NEAT_schema.xlsx
+++ b/project/excel/NEAT_schema.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CF1"/>
+  <dimension ref="A1:CH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,159 +539,159 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>ensmallenRunConfig__node_type_list_support_balanced_quotes</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>ensmallenRunConfig__node_type_list_rows_to_skip</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__node_type_list_is_correct</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__node_type_list_max_rows_number</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__node_type_list_comment_symbol</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__load_node_type_list_in_parallel</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__node_path</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__node_list_separator</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__node_list_header</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>ensmallenRunConfig__node_list_support_balanced_quotes</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__node_list_rows_to_skip</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__node_list_is_correct</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__node_list_max_rows_number</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__node_list_comment_symbol</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__default_node_type</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__nodes_column_number</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__nodes_column</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__node_types_separator</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__node_list_node_types_column_number</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__node_list_node_types_column</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__node_ids_column</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__node_ids_column_number</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__nodes_number</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__minimum_node_id</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__numeric_node_ids</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__node_list_numeric_node_type_ids</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__skip_node_types_if_unavailable</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__load_node_list_in_parallel</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_type_path</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_types_column_number</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_types_column</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>ensmallenRunConfig__edge_types_ids_column_number</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>ensmallenRunConfig__edge_types_ids_column</t>
-        </is>
-      </c>
       <c r="AP1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_types_number</t>
@@ -719,190 +719,200 @@
       </c>
       <c r="AU1" t="inlineStr">
         <is>
+          <t>ensmallenRunConfig__edge_type_list_support_balanced_quotes</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
           <t>ensmallenRunConfig__edge_type_list_rows_to_skip</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_type_list_is_correct</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_type_list_max_rows_number</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_type_list_comment_symbol</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__load_edge_type_list_in_parallel</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_path</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_list_separator</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_list_header</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>ensmallenRunConfig__edge_list_support_balanced_quotes</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_list_rows_to_skip</t>
         </is>
       </c>
-      <c r="BD1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__sources_column_number</t>
         </is>
       </c>
-      <c r="BE1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__sources_column</t>
         </is>
       </c>
-      <c r="BF1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__destinations_column_number</t>
         </is>
       </c>
-      <c r="BG1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__destinations_column</t>
         </is>
       </c>
-      <c r="BH1" t="inlineStr">
+      <c r="BJ1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_list_edge_types_column_number</t>
         </is>
       </c>
-      <c r="BI1" t="inlineStr">
+      <c r="BK1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_list_edge_types_column</t>
         </is>
       </c>
-      <c r="BJ1" t="inlineStr">
+      <c r="BL1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__default_edge_type</t>
         </is>
       </c>
-      <c r="BK1" t="inlineStr">
+      <c r="BM1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__weights_column_number</t>
         </is>
       </c>
-      <c r="BL1" t="inlineStr">
+      <c r="BN1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__weights_column</t>
         </is>
       </c>
-      <c r="BM1" t="inlineStr">
+      <c r="BO1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__default_weight</t>
         </is>
       </c>
-      <c r="BN1" t="inlineStr">
+      <c r="BP1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_ids_column</t>
         </is>
       </c>
-      <c r="BO1" t="inlineStr">
+      <c r="BQ1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_ids_column_number</t>
         </is>
       </c>
-      <c r="BP1" t="inlineStr">
+      <c r="BR1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_list_numeric_edge_type_ids</t>
         </is>
       </c>
-      <c r="BQ1" t="inlineStr">
+      <c r="BS1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_list_numeric_node_ids</t>
         </is>
       </c>
-      <c r="BR1" t="inlineStr">
+      <c r="BT1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__skip_weights_if_unavailable</t>
         </is>
       </c>
-      <c r="BS1" t="inlineStr">
+      <c r="BU1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__skip_edge_types_if_unavailable</t>
         </is>
       </c>
-      <c r="BT1" t="inlineStr">
+      <c r="BV1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_list_is_complete</t>
         </is>
       </c>
-      <c r="BU1" t="inlineStr">
+      <c r="BW1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_list_may_contain_duplicates</t>
         </is>
       </c>
-      <c r="BV1" t="inlineStr">
+      <c r="BX1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_list_is_sorted</t>
         </is>
       </c>
-      <c r="BW1" t="inlineStr">
+      <c r="BY1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_list_is_correct</t>
         </is>
       </c>
-      <c r="BX1" t="inlineStr">
+      <c r="BZ1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_list_max_rows_number</t>
         </is>
       </c>
-      <c r="BY1" t="inlineStr">
+      <c r="CA1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edge_list_comment_symbol</t>
         </is>
       </c>
-      <c r="BZ1" t="inlineStr">
+      <c r="CB1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__edges_number</t>
         </is>
       </c>
-      <c r="CA1" t="inlineStr">
+      <c r="CC1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__load_edge_list_in_parallel</t>
         </is>
       </c>
-      <c r="CB1" t="inlineStr">
+      <c r="CD1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__verbose</t>
         </is>
       </c>
-      <c r="CC1" t="inlineStr">
+      <c r="CE1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__may_have_singletons</t>
         </is>
       </c>
-      <c r="CD1" t="inlineStr">
+      <c r="CF1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__may_have_singleton_with_selfloops</t>
         </is>
       </c>
-      <c r="CE1" t="inlineStr">
+      <c r="CG1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__directed</t>
         </is>
       </c>
-      <c r="CF1" t="inlineStr">
+      <c r="CH1" t="inlineStr">
         <is>
           <t>ensmallenRunConfig__name</t>
         </is>
